--- a/biology/Botanique/Brachyelytrum/Brachyelytrum.xlsx
+++ b/biology/Botanique/Brachyelytrum/Brachyelytrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachyelytrum  est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Amérique du Nord et d'Asie orientale.
 Ce genre, qui regroupe trois espèces, est l'unique genre de la tribu des Brachyelytreae (tribu monotypique).
 Étymologie
-le nom générique « Brachyelytrum » est formé des racines grecques brachys (court) et elytron (enveloppe, étui), en référence à ses glumes courtes[3].
+le nom générique « Brachyelytrum » est formé des racines grecques brachys (court) et elytron (enveloppe, étui), en référence à ses glumes courtes.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 septembre 2016)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 septembre 2016) :
 Brachyelytrum aristosum (Michx.) Trel., Branner &amp; Coville (1888 publ. 1891)
 Brachyelytrum erectum (Schreb.) P.Beauv., Ess. Agrostogr.: 39, 155 (1812)
 Brachyelytrum japonicum (Hack.) Matsum. ex Honda, J. Fac. Sci. Univ. Tokyo, Sect. 3 (1930)</t>
